--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_48.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_48.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998988344040182</v>
+        <v>0.9490760072797528</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8266499837537945</v>
+        <v>0.7406520741712846</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8156020164042678</v>
+        <v>0.736446686066439</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999703095308429</v>
+        <v>0.9587568950401103</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0004211044940754461</v>
+        <v>0.1785145953516906</v>
       </c>
       <c r="G2" t="n">
-        <v>1.159192356841806</v>
+        <v>1.734260774204012</v>
       </c>
       <c r="H2" t="n">
-        <v>0.659580895312521</v>
+        <v>0.9427149222411741</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001518655026594831</v>
+        <v>0.1901473343076852</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03983164658393049</v>
+        <v>1.535399375341405</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02052083073550986</v>
+        <v>0.4225098760404195</v>
       </c>
       <c r="L2" t="n">
-        <v>1.006474598142837</v>
+        <v>0.9306566907639188</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02084401330628921</v>
+        <v>0.4291639842331313</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5452591012496</v>
+        <v>37.44616982885803</v>
       </c>
       <c r="O2" t="n">
-        <v>286.8804316444659</v>
+        <v>74.41075341708385</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998920320529712</v>
+        <v>0.9490463062585616</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8258445184907706</v>
+        <v>0.7406069441703598</v>
       </c>
       <c r="D3" t="n">
-        <v>0.815996857400369</v>
+        <v>0.7369058013952747</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998715288936173</v>
+        <v>0.958111646825797</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0004494194619096696</v>
+        <v>0.1786187125957688</v>
       </c>
       <c r="G3" t="n">
-        <v>1.164578506764473</v>
+        <v>1.734562558728001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6581685719636632</v>
+        <v>0.9410726933309653</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0006571243130171396</v>
+        <v>0.1931221886024284</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04661900645975935</v>
+        <v>1.534054973564994</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0211995156055432</v>
+        <v>0.422633070873268</v>
       </c>
       <c r="L3" t="n">
-        <v>1.006909948609845</v>
+        <v>0.930616246820169</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02153338678458961</v>
+        <v>0.4292891192614476</v>
       </c>
       <c r="N3" t="n">
-        <v>145.4151077854414</v>
+        <v>37.44500368451125</v>
       </c>
       <c r="O3" t="n">
-        <v>286.7502803286578</v>
+        <v>74.40958727273707</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998920641941734</v>
+        <v>0.9490147084706441</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8257799980717178</v>
+        <v>0.7405765200006433</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8159419407265273</v>
+        <v>0.7373380313388502</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998651778223367</v>
+        <v>0.9574702587271046</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0004492856732974007</v>
+        <v>0.1787294789756772</v>
       </c>
       <c r="G4" t="n">
-        <v>1.165009955103768</v>
+        <v>1.734766005290985</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6583650057217434</v>
+        <v>0.9395266318849279</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0006896097758554615</v>
+        <v>0.196079246208582</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04688720288808972</v>
+        <v>1.532794189662883</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02119635990677175</v>
+        <v>0.4227640937635045</v>
       </c>
       <c r="L4" t="n">
-        <v>1.006907891572901</v>
+        <v>0.9305732200451323</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02153018138671705</v>
+        <v>0.4294222056312305</v>
       </c>
       <c r="N4" t="n">
-        <v>145.41570325823</v>
+        <v>37.44376381386331</v>
       </c>
       <c r="O4" t="n">
-        <v>286.7508758014464</v>
+        <v>74.40834740208913</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998912004342878</v>
+        <v>0.9489796742142501</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8257512006011352</v>
+        <v>0.7405415321649624</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8159589359416565</v>
+        <v>0.7377609295918638</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9998568741604877</v>
+        <v>0.9568303489167914</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0004528810968807142</v>
+        <v>0.178852291932194</v>
       </c>
       <c r="G5" t="n">
-        <v>1.165202523922154</v>
+        <v>1.734999969109288</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6583042148226654</v>
+        <v>0.9380139493549478</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0007320826574371528</v>
+        <v>0.1990294883095762</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04780288868769996</v>
+        <v>1.531537289759454</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02128100319253569</v>
+        <v>0.4229093188051004</v>
       </c>
       <c r="L5" t="n">
-        <v>1.00696317220558</v>
+        <v>0.9305255138236598</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02161615771961953</v>
+        <v>0.4295697178220597</v>
       </c>
       <c r="N5" t="n">
-        <v>145.399761892454</v>
+        <v>37.44238999706013</v>
       </c>
       <c r="O5" t="n">
-        <v>286.7349344356704</v>
+        <v>74.40697358528595</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998811753433929</v>
+        <v>0.9489422236878708</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8254505640109926</v>
+        <v>0.7405096787970212</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8157994904946337</v>
+        <v>0.7381672877748036</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999764687857539</v>
+        <v>0.956194296393628</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0004946108053687826</v>
+        <v>0.1789835751487129</v>
       </c>
       <c r="G6" t="n">
-        <v>1.167212882184742</v>
+        <v>1.735212972727382</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6588745419414875</v>
+        <v>0.9365604296965735</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001203611724948262</v>
+        <v>0.2019619467623726</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04791040772972578</v>
+        <v>1.530337101330269</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02223984724247859</v>
+        <v>0.4230645047137763</v>
       </c>
       <c r="L6" t="n">
-        <v>1.007604778022852</v>
+        <v>0.9304745173622071</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02259010260485663</v>
+        <v>0.4297273477536683</v>
       </c>
       <c r="N6" t="n">
-        <v>145.2234787128677</v>
+        <v>37.44092247259446</v>
       </c>
       <c r="O6" t="n">
-        <v>286.5586512560841</v>
+        <v>74.40550606082029</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998513507742697</v>
+        <v>0.9483419416588416</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8249186675763172</v>
+        <v>0.7386001382531358</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8158905727572192</v>
+        <v>0.7419840390058234</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9995851292570506</v>
+        <v>0.9511241410428966</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0006187563705660631</v>
+        <v>0.1810878701535792</v>
       </c>
       <c r="G7" t="n">
-        <v>1.170769676092575</v>
+        <v>1.74798207913697</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6585487459694723</v>
+        <v>0.9229081318511674</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002122046424505216</v>
+        <v>0.2253374061368556</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05139958331500683</v>
+        <v>1.518793796303673</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02487481398053186</v>
+        <v>0.4255442046997929</v>
       </c>
       <c r="L7" t="n">
-        <v>1.009513550446741</v>
+        <v>0.9296571120460821</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02526656743503385</v>
+        <v>0.432246100535674</v>
       </c>
       <c r="N7" t="n">
-        <v>144.7755978965401</v>
+        <v>37.41754579011442</v>
       </c>
       <c r="O7" t="n">
-        <v>286.1107704397565</v>
+        <v>74.38212937834024</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998329593361444</v>
+        <v>0.9482349954287536</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8246609764337495</v>
+        <v>0.7385483321744706</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8155526659511353</v>
+        <v>0.7426028204866342</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9994949896474026</v>
+        <v>0.9499158201237445</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0006953112227557933</v>
+        <v>0.1814627712948433</v>
       </c>
       <c r="G8" t="n">
-        <v>1.172492857949484</v>
+        <v>1.748328506623548</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6597574190218719</v>
+        <v>0.9206947863733188</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002583106741750011</v>
+        <v>0.2309082525119867</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05558616156991941</v>
+        <v>1.516833333345751</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02636875466827725</v>
+        <v>0.4259844730677906</v>
       </c>
       <c r="L8" t="n">
-        <v>1.010690602486761</v>
+        <v>0.9295114831370261</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02678403619521843</v>
+        <v>0.4326933026903609</v>
       </c>
       <c r="N8" t="n">
-        <v>144.5423020202136</v>
+        <v>37.41340952629877</v>
       </c>
       <c r="O8" t="n">
-        <v>285.87747456343</v>
+        <v>74.3779931145246</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999833651492289</v>
+        <v>0.9478790765572542</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8246012621552035</v>
+        <v>0.738366345620687</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8154803924560367</v>
+        <v>0.7442770867815751</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9994942852909002</v>
+        <v>0.9463909246321685</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0006924301043255719</v>
+        <v>0.18271044866517</v>
       </c>
       <c r="G9" t="n">
-        <v>1.17289216760508</v>
+        <v>1.749545451546671</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6600159371231817</v>
+        <v>0.914706032915853</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002586709495674431</v>
+        <v>0.2471594412158495</v>
       </c>
       <c r="J9" t="n">
-        <v>0.05540368021002857</v>
+        <v>1.511394357071703</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02631406666263449</v>
+        <v>0.4274464278306347</v>
       </c>
       <c r="L9" t="n">
-        <v>1.010646304493505</v>
+        <v>0.9290268276524313</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02672848690815475</v>
+        <v>0.4341782817793011</v>
       </c>
       <c r="N9" t="n">
-        <v>144.5506065147573</v>
+        <v>37.39970525389585</v>
       </c>
       <c r="O9" t="n">
-        <v>285.8857790579737</v>
+        <v>74.36428884212168</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998287465552711</v>
+        <v>0.9474138050442541</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8245908060218459</v>
+        <v>0.7380918982075392</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8156031913760015</v>
+        <v>0.7459540563411449</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9994736084430833</v>
+        <v>0.9424772831897582</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0007128470356086506</v>
+        <v>0.1843414628774327</v>
       </c>
       <c r="G10" t="n">
-        <v>1.172962087816988</v>
+        <v>1.751380682662104</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6595766925067581</v>
+        <v>0.9087076100375538</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002692470703775099</v>
+        <v>0.265202905412692</v>
       </c>
       <c r="J10" t="n">
-        <v>0.05636349372820226</v>
+        <v>1.505988915115114</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02669919541126007</v>
+        <v>0.4293500470215797</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01096022046265</v>
+        <v>0.9283932664432396</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02711968104958367</v>
+        <v>0.4361118810695824</v>
       </c>
       <c r="N10" t="n">
-        <v>144.4924873937589</v>
+        <v>37.38193092938235</v>
       </c>
       <c r="O10" t="n">
-        <v>285.8276599369753</v>
+        <v>74.34651451760817</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998130278064774</v>
+        <v>0.947004903830149</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8244192470487877</v>
+        <v>0.7379052381258491</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8153536315196654</v>
+        <v>0.7471339121857393</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9993937709372505</v>
+        <v>0.9393410206127949</v>
       </c>
       <c r="F11" t="n">
-        <v>0.000778276747102961</v>
+        <v>0.1857748704104159</v>
       </c>
       <c r="G11" t="n">
-        <v>1.174109303459785</v>
+        <v>1.752628879487856</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6604693536425604</v>
+        <v>0.904487334093412</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003100836192721246</v>
+        <v>0.2796623397661069</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05703366514318564</v>
+        <v>1.502029956363786</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02789761185304149</v>
+        <v>0.4310160906630005</v>
       </c>
       <c r="L11" t="n">
-        <v>1.011966220385446</v>
+        <v>0.9278364647899902</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02833697135234621</v>
+        <v>0.437804163232923</v>
       </c>
       <c r="N11" t="n">
-        <v>144.3168567619344</v>
+        <v>37.36643942500173</v>
       </c>
       <c r="O11" t="n">
-        <v>285.6520293051508</v>
+        <v>74.33102301322755</v>
       </c>
     </row>
   </sheetData>
